--- a/Projects/CBCDAIRYIL/Tests/Data/test_template.xlsx
+++ b/Projects/CBCDAIRYIL/Tests/Data/test_template.xlsx
@@ -34,6 +34,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$2:$T$28</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$2:$T$28</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$2:$T$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$2:$T$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$2:$T$28</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ל" vbProcedure="false">KPI!$A$2:$T$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -264,7 +266,7 @@
     <t xml:space="preserve">Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">7290102390427,7290102393039, 7290102397617,7290102398140,7290102397334,7290000474502,7290102394821,7290102394845,7290102398072 , 7290000474090 , 7290000474076 , 7290102396948 , 7290102399680,7290003126712,7290000148298, 7290003009640, 7290013153548, 7290013153555, 7290013153593,7290002107019,7290002868996,7290102398560,7290102392636 , 7290102398508</t>
+    <t xml:space="preserve">7290102395224, 7290102395231, 7290102396399</t>
   </si>
   <si>
     <t xml:space="preserve">האם גבינה צהובה נמצאת בגובה העיניים (מדפים 3-4)</t>
@@ -1078,33 +1080,33 @@
   </sheetPr>
   <dimension ref="A1:AMH28"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7023255813953"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.2418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.6"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="34.3348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="100.66511627907"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="36.7953488372093"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="58.2093023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="194.316279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="3" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.7953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.2093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.2279069767442"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="106.693023255814"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="38.8883720930233"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="61.6558139534884"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="206.497674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="3" width="22.0279069767442"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,7 +1953,7 @@
       </c>
       <c r="T18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
         <v>68</v>
       </c>
@@ -2454,8 +2456,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.9023255813953"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.5906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,10 +2587,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="47.7488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="42" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="42" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="50.5767441860465"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="42" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="42" width="21.1674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,8 +3508,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.2418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,8 +3571,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.8139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
